--- a/userfile/data2.xlsx
+++ b/userfile/data2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>Dustin</t>
   </si>
@@ -27,34 +27,23 @@
     <t>name</t>
   </si>
   <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>asdfls123</t>
-  </si>
-  <si>
-    <t>543sfsad</t>
+    <t>Fred</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>count</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -77,16 +66,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -386,49 +373,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>42283</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42283</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42283</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42284</v>
+      </c>
+      <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C5">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>42284</v>
+      </c>
+      <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>4321</v>
+      <c r="C6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>42284</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
